--- a/truth_table.xlsx
+++ b/truth_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aud.chen/Desktop/UR/2025Fall/CS301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4F5CF-22DA-0942-A422-E050210E3946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5D950-7E34-E54B-8CEA-70333FCAFC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -788,10 +788,10 @@
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="16">
-        <v>101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,9 @@
       <c r="F30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13">
+        <v>100000</v>
+      </c>
       <c r="H30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1810,19 +1812,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/truth_table.xlsx
+++ b/truth_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aud.chen/Desktop/UR/2025Fall/CS301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5D950-7E34-E54B-8CEA-70333FCAFC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF71C37-B92B-1D48-93A1-F033BE00F3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
   <si>
     <t>instr</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>clz</t>
+  </si>
+  <si>
+    <t>J Select</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +646,7 @@
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +686,11 @@
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -725,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -766,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -844,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -885,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -926,7 +932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -967,7 +973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1197,11 +1203,12 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1234,11 +1241,12 @@
       <c r="L15" s="6">
         <v>0</v>
       </c>
-      <c r="M15" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1268,8 +1276,11 @@
         <v>0</v>
       </c>
       <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -1299,8 +1310,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -1338,8 +1352,11 @@
         <v>0</v>
       </c>
       <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1377,8 +1394,11 @@
         <v>0</v>
       </c>
       <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1416,8 +1436,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +1481,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>39</v>
       </c>
@@ -1499,7 +1522,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
@@ -1540,7 +1563,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
@@ -1581,7 +1604,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>42</v>
       </c>
@@ -1618,7 +1641,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
@@ -1655,7 +1678,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1715,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>45</v>
       </c>
@@ -1729,7 +1752,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>47</v>
       </c>
@@ -1770,7 +1793,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>48</v>
       </c>

--- a/truth_table.xlsx
+++ b/truth_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aud.chen/Desktop/UR/2025Fall/CS301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF71C37-B92B-1D48-93A1-F033BE00F3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C258C6-64E6-4549-90A7-EDBA67E72B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{3CC5E16A-84AD-254C-A80D-CBE2F9156C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="51">
   <si>
     <t>instr</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>J Select</t>
+  </si>
+  <si>
+    <t>no default</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B12971-82CC-C243-B603-E6DE4D0DBF7D}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +649,7 @@
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +693,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -731,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -772,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -809,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -850,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -891,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -932,7 +935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -973,7 +976,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -1277,7 +1280,10 @@
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1315,9 @@
       <c r="L17" s="6">
         <v>0</v>
       </c>
-      <c r="M17" s="17"/>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
       <c r="N17" s="17">
         <v>1</v>
       </c>
@@ -1393,7 +1401,9 @@
       <c r="L19" s="6">
         <v>0</v>
       </c>
-      <c r="M19" s="17"/>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
       <c r="N19" s="17">
         <v>11</v>
       </c>
